--- a/gd/数值规划/疲劳值系统.xlsx
+++ b/gd/数值规划/疲劳值系统.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,10 +121,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疲劳值恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>定义疲劳值恢复6点/小时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,10 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4.特定节日或特殊活动赠送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>疲劳值上限</t>
   </si>
   <si>
@@ -176,14 +168,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100/150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100为玩家当前疲劳值，150为疲劳值上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击则弹出疲劳值药使用界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -199,35 +183,205 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>中疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值药可回复最大疲劳值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多使用个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出疲劳值公式=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（玩家重新上线时间-玩家下线时间）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位恢复疲劳值时间（10min）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值恢复流程图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（玩家重新上线时间-玩家下线时间）表示玩家离线时间（单位为min）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体回复方式：每10分钟恢复一点，若玩家在线则1点1点的恢复；玩家不在线则判定玩家下线时间与再次上线时间，计算出该段时间产出的疲劳值,若其溢出则加至满疲劳值，若未溢出则将产出的疲劳值直接加在玩家原有疲劳值上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（产出期望价值为普通本的2倍）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值特殊溢出方式与特殊规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用条件：玩家疲劳值未达到上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值溢出方式：玩家在拥有一定疲劳值时（未达到上限的疲劳值），使用疲劳值药或通过活动使疲劳值超过疲劳值上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值自动恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.疲劳值溢出时，不允许使用疲劳值药并且不允许通过活动继续提升疲劳值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值不够：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊规则：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.疲劳值溢出时，疲劳值不自动恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值不够时的提示，不让继续使用疲劳值药/活动不让领疲劳值的提示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不让继续使用疲劳值药/活动不让领疲劳值</t>
+  </si>
+  <si>
+    <t>提示玩家 现有疲劳值已达到上限，请消耗些再来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.特定时间点投放固定疲劳值给玩家（2次共75点左右，领取条件：玩家疲劳值未达到上限）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.特定节日或特殊活动赠送（领取条件：玩家疲劳值未达到上限）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>小疲劳值药</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>中疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值药可回复最大疲劳值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多使用个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回复量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.特定时间点投放固定疲劳值给玩家（2次75点左右）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（产出价值为普通本的2倍）</t>
+    <t>按钮状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击/选中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>点击规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击小/中/大疲劳值药可以分别选中该道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击取消或关闭按钮直接退出疲劳值药使用界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击确定时，分为几种情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选中任意疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出二级 请选择使用疲劳药种类后再次确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选中任意疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出使用疲劳值药确认二级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中的1/10指一天已用的疲劳值药/一天可用的疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上面的取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中的10指玩家拥有的该种类疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱要有钥匙！！！！！！！！！！！！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的疲劳值药今日已不可继续使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示 今天已不可使用该种疲劳药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的疲劳值药今日仍可继续使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出 疲劳值药使用界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击加号按钮可以以1为做小变化量，将使用最大值调为min（今天仍可使用的数量，玩家拥有数量），继续点击后无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击减号按钮可以以1为做小变化量，将使用最小值调为0（默认为0），继续点击后无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30为玩家当前疲劳值，150为疲劳值上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击取消则返回疲劳值药使用界面，玩家点击确定则使用玩家选择数量的疲劳值药（0就相当于木有用），并返回疲劳值药使用界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +457,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -318,7 +485,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -341,6 +508,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -357,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,9 +558,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -398,6 +571,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,16 +610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -443,7 +628,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2133600" y="4867275"/>
+          <a:off x="3714750" y="11782425"/>
           <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -479,10 +664,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="274114" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -492,7 +677,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2085975" y="4791075"/>
+          <a:off x="3667125" y="11687175"/>
           <a:ext cx="274114" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -542,13 +727,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -596,7 +781,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="274114" cy="311496"/>
@@ -653,6 +838,4093 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>164735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="2219325"/>
+          <a:ext cx="1314450" cy="1307735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>351949</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="70" name="组合 69"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1304925" y="2057400"/>
+          <a:ext cx="6590824" cy="6410325"/>
+          <a:chOff x="1295400" y="2019300"/>
+          <a:chExt cx="6590824" cy="6410325"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="69" name="组合 68"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1295400" y="2019300"/>
+            <a:ext cx="5933599" cy="6410325"/>
+            <a:chOff x="1295400" y="2019300"/>
+            <a:chExt cx="5933599" cy="6410325"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="50" name="组合 49"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="1295400" y="2019300"/>
+              <a:ext cx="5933599" cy="6410325"/>
+              <a:chOff x="1171575" y="1895831"/>
+              <a:chExt cx="5933599" cy="5562244"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="8" name="组合 7"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="4381500" y="1895831"/>
+                <a:ext cx="1504950" cy="457200"/>
+                <a:chOff x="4257675" y="1800581"/>
+                <a:chExt cx="1504950" cy="457200"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="6" name="圆角矩形 5"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4257675" y="1800581"/>
+                  <a:ext cx="1504950" cy="457200"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="7" name="文本框 6"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4514850" y="1864735"/>
+                  <a:ext cx="954107" cy="356316"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>疲劳值恢复</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="11" name="组合 10"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="2266950" y="3381375"/>
+                <a:ext cx="2126488" cy="647700"/>
+                <a:chOff x="2466975" y="3286125"/>
+                <a:chExt cx="2126488" cy="647700"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="9" name="流程图: 决策 8"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2466975" y="3286125"/>
+                  <a:ext cx="2126488" cy="647700"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartDecision">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="10" name="文本框 9"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2971800" y="3409950"/>
+                  <a:ext cx="1019175" cy="356316"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>玩家是否在线</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="6" idx="2"/>
+                <a:endCxn id="53" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm flipH="1">
+                <a:off x="5130419" y="2353031"/>
+                <a:ext cx="3556" cy="195723"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="9" idx="1"/>
+                <a:endCxn id="21" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000" flipV="1">
+                <a:off x="1924050" y="3705225"/>
+                <a:ext cx="342900" cy="733424"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector2">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="9" idx="3"/>
+                <a:endCxn id="25" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4393438" y="3705225"/>
+                <a:ext cx="30925" cy="723900"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector2">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="20" name="组合 19"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="1171575" y="4419600"/>
+                <a:ext cx="1504950" cy="620298"/>
+                <a:chOff x="2419350" y="2419350"/>
+                <a:chExt cx="1504950" cy="620298"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="21" name="圆角矩形 20"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2419350" y="2438399"/>
+                  <a:ext cx="1504950" cy="561975"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="22" name="文本框 21"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2552700" y="2419350"/>
+                  <a:ext cx="1260666" cy="620298"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>疲劳值每</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>10min</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>恢复</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>1</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>点</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="27" name="组合 26"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="3381375" y="4429125"/>
+                <a:ext cx="2076450" cy="647700"/>
+                <a:chOff x="3752850" y="4533900"/>
+                <a:chExt cx="2076450" cy="647700"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="25" name="矩形 24"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3790950" y="4533900"/>
+                  <a:ext cx="2009775" cy="647700"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="26" name="文本框 25"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3752850" y="4543425"/>
+                  <a:ext cx="2076450" cy="628650"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>通过玩家离线时间计算计算出</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>该段时间可产出的疲劳值总量</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="30" name="组合 29"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="3038475" y="5419724"/>
+                <a:ext cx="2762250" cy="1057275"/>
+                <a:chOff x="3609975" y="5514974"/>
+                <a:chExt cx="2762250" cy="1057275"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="29" name="流程图: 决策 28"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3609975" y="5514974"/>
+                  <a:ext cx="2762250" cy="1057275"/>
+                </a:xfrm>
+                <a:prstGeom prst="flowChartDecision">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="12" name="文本框 11"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="3962401" y="5734049"/>
+                  <a:ext cx="2076450" cy="676276"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>（产出疲劳值总量</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>+</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>玩家下线</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>时疲劳值</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>)</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>是否</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>&gt;=</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>疲劳值上限</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="26" idx="2"/>
+                <a:endCxn id="29" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="4419600" y="5067300"/>
+                <a:ext cx="0" cy="352424"/>
+              </a:xfrm>
+              <a:prstGeom prst="straightConnector1">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="34" name="直接箭头连接符 14"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="29" idx="1"/>
+                <a:endCxn id="47" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm rot="10800000" flipV="1">
+                <a:off x="2895601" y="5948362"/>
+                <a:ext cx="142875" cy="547688"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector2">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent1"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:cxnSp macro="">
+            <xdr:nvCxnSpPr>
+              <xdr:cNvPr id="35" name="直接箭头连接符 15"/>
+              <xdr:cNvCxnSpPr>
+                <a:stCxn id="29" idx="3"/>
+                <a:endCxn id="39" idx="0"/>
+              </xdr:cNvCxnSpPr>
+            </xdr:nvCxnSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="5800725" y="5948362"/>
+                <a:ext cx="361950" cy="576262"/>
+              </a:xfrm>
+              <a:prstGeom prst="bentConnector2">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:ln>
+                <a:tailEnd type="triangle"/>
+              </a:ln>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="3">
+                <a:schemeClr val="accent6"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:schemeClr val="accent6"/>
+              </a:fillRef>
+              <a:effectRef idx="2">
+                <a:schemeClr val="accent6"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+          </xdr:cxnSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="38" name="组合 37"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="5381625" y="6524624"/>
+                <a:ext cx="1723549" cy="723901"/>
+                <a:chOff x="2390775" y="2438399"/>
+                <a:chExt cx="1723549" cy="723901"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="39" name="圆角矩形 38"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2419350" y="2438399"/>
+                  <a:ext cx="1504950" cy="561975"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="40" name="文本框 39"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2390775" y="2457449"/>
+                  <a:ext cx="1723549" cy="704851"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>玩家再上线时，疲劳值</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>恢复至疲劳值上限值</a:t>
+                  </a:r>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+          <xdr:grpSp>
+            <xdr:nvGrpSpPr>
+              <xdr:cNvPr id="46" name="组合 45"/>
+              <xdr:cNvGrpSpPr/>
+            </xdr:nvGrpSpPr>
+            <xdr:grpSpPr>
+              <a:xfrm>
+                <a:off x="2114550" y="6496050"/>
+                <a:ext cx="1723549" cy="962025"/>
+                <a:chOff x="2390775" y="2438399"/>
+                <a:chExt cx="1723549" cy="561975"/>
+              </a:xfrm>
+            </xdr:grpSpPr>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="47" name="圆角矩形 46"/>
+                <xdr:cNvSpPr/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2419350" y="2438399"/>
+                  <a:ext cx="1504950" cy="561975"/>
+                </a:xfrm>
+                <a:prstGeom prst="roundRect">
+                  <a:avLst/>
+                </a:prstGeom>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="2">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="50000"/>
+                  </a:schemeClr>
+                </a:lnRef>
+                <a:fillRef idx="1">
+                  <a:schemeClr val="accent1"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:schemeClr val="accent1"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="lt1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l"/>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="48" name="文本框 47"/>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="2390775" y="2457450"/>
+                  <a:ext cx="1723549" cy="526232"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>玩家再上线时，疲劳值</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    </a:rPr>
+                    <a:t>恢复至（</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>产出疲劳值总</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:endParaRPr>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>量</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>+</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>玩家下线时疲劳值</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>）</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:endParaRPr>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </xdr:grpSp>
+        </xdr:grpSp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="55" name="组合 54"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="4191000" y="2771775"/>
+              <a:ext cx="2126488" cy="746455"/>
+              <a:chOff x="8915400" y="3362325"/>
+              <a:chExt cx="2126488" cy="746455"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="53" name="流程图: 决策 52"/>
+              <xdr:cNvSpPr/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="8915400" y="3362325"/>
+                <a:ext cx="2126488" cy="746455"/>
+              </a:xfrm>
+              <a:prstGeom prst="flowChartDecision">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="2">
+                <a:schemeClr val="accent1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:lnRef>
+              <a:fillRef idx="1">
+                <a:schemeClr val="accent1"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:schemeClr val="accent1"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="lt1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l"/>
+                <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="54" name="文本框 53"/>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="9401175" y="3552825"/>
+                <a:ext cx="1228725" cy="410644"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+                <a:noAutofit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                    <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                    <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  </a:rPr>
+                  <a:t>疲劳值是否溢出</a:t>
+                </a:r>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </xdr:grpSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="58" name="直接箭头连接符 14"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="53" idx="1"/>
+              <a:endCxn id="9" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm rot="10800000" flipV="1">
+              <a:off x="3454020" y="3145002"/>
+              <a:ext cx="736981" cy="586343"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector2">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="61" name="直接箭头连接符 15"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="53" idx="3"/>
+              <a:endCxn id="65" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6317488" y="3145003"/>
+              <a:ext cx="573850" cy="617372"/>
+            </a:xfrm>
+            <a:prstGeom prst="bentConnector2">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="3">
+              <a:schemeClr val="accent6"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent6"/>
+            </a:fillRef>
+            <a:effectRef idx="2">
+              <a:schemeClr val="accent6"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="圆角矩形 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6210300" y="3762375"/>
+            <a:ext cx="1362075" cy="466725"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="文本框 63"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6162675" y="3829050"/>
+            <a:ext cx="1723549" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>疲劳值完全不恢复</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="矩形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="16154399"/>
+          <a:ext cx="4705350" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="圆角矩形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="16954500"/>
+          <a:ext cx="4105275" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="圆角矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="17164050"/>
+          <a:ext cx="866775" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="圆角矩形 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="17173575"/>
+          <a:ext cx="866775" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="圆角矩形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="17173575"/>
+          <a:ext cx="866775" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2883931" cy="444481"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="文本框 74"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="16430625"/>
+          <a:ext cx="2883931" cy="444481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>疲劳值不够吗？可以补充呦！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="圆角矩形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="18202275"/>
+          <a:ext cx="990600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="圆角矩形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486275" y="18202275"/>
+          <a:ext cx="990600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="圆角矩形 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="16221075"/>
+          <a:ext cx="285750" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="乘号 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="16192500"/>
+          <a:ext cx="295275" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMultiply">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="444481"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="文本框 80"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695825" y="18173700"/>
+          <a:ext cx="595035" cy="444481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>确定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="444481"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="文本框 81"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="18173700"/>
+          <a:ext cx="595035" cy="444481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>取消</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923925" cy="333374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="文本框 82"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="17373601"/>
+          <a:ext cx="923925" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>小疲劳值药</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923925" cy="333374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="文本框 83"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="17383125"/>
+          <a:ext cx="923925" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>中疲劳值药</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923925" cy="333374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="文本框 84"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="17392650"/>
+          <a:ext cx="923925" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>大疲劳值药</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="453650" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="文本框 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="17716500"/>
+          <a:ext cx="453650" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1/10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="382156" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="文本框 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="17726025"/>
+          <a:ext cx="382156" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0/4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="382156" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="文本框 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5629275" y="17754600"/>
+          <a:ext cx="382156" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2/2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="圆角矩形 88"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3657600" y="17116425"/>
+          <a:ext cx="1000125" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>463175</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>178835</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="组合 92"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2933700" y="19069050"/>
+          <a:ext cx="958475" cy="817010"/>
+          <a:chOff x="2495550" y="17316450"/>
+          <a:chExt cx="958475" cy="817010"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="圆角矩形 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2505075" y="17316450"/>
+            <a:ext cx="866775" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="文本框 90"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2495550" y="17526001"/>
+            <a:ext cx="923925" cy="333374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>小疲劳值药</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="文本框 91"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000375" y="17868900"/>
+            <a:ext cx="453650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1/10</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="圆角矩形 93"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="20192999"/>
+          <a:ext cx="933450" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FFC000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>520325</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>64535</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="95" name="组合 94"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2990850" y="20212050"/>
+          <a:ext cx="958475" cy="817010"/>
+          <a:chOff x="2495550" y="17316450"/>
+          <a:chExt cx="958475" cy="817010"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="圆角矩形 95"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2505075" y="17316450"/>
+            <a:ext cx="866775" cy="809625"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="文本框 96"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2495550" y="17526001"/>
+            <a:ext cx="923925" cy="333374"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              </a:rPr>
+              <a:t>小疲劳值药</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="文本框 97"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3000375" y="17868900"/>
+            <a:ext cx="453650" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+              <a:t>1/10</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="圆角矩形 98"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="21393150"/>
+          <a:ext cx="990600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="444481"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="文本框 99"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="21364575"/>
+          <a:ext cx="595035" cy="444481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>取消</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="圆角矩形 100"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2914650" y="22031325"/>
+          <a:ext cx="990600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="444481"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="文本框 101"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124200" y="22002750"/>
+          <a:ext cx="595035" cy="444481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>取消</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="矩形 102"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="24422100"/>
+          <a:ext cx="4705350" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2995244" cy="488403"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="文本框 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3133725" y="24650700"/>
+          <a:ext cx="2995244" cy="488403"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>这可就是用了啊！看好啦！</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800">
+            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="圆角矩形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3228975" y="25250775"/>
+          <a:ext cx="866775" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="923925" cy="333374"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="文本框 105"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3219450" y="25460326"/>
+          <a:ext cx="923925" cy="333374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>小疲劳值药</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>129800</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>83585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="文本框 106"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3790950" y="25812750"/>
+          <a:ext cx="453650" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="圆角矩形 107"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="25536525"/>
+          <a:ext cx="695325" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>    1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="圆角矩形 108"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="26393775"/>
+          <a:ext cx="990600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="圆角矩形 109"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4953000" y="26393775"/>
+          <a:ext cx="990600" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="444481"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="文本框 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5162550" y="26365200"/>
+          <a:ext cx="595035" cy="444481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>确定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="444481"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="文本框 111"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3381375" y="26365200"/>
+          <a:ext cx="595035" cy="444481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+            </a:rPr>
+            <a:t>取消</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="椭圆 113"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010275" y="25612725"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="椭圆 114"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="25603200"/>
+          <a:ext cx="228600" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="加号 115"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6010275" y="25622250"/>
+          <a:ext cx="228600" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathPlus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="减号 116"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="25565100"/>
+          <a:ext cx="266700" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathMinus">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>154359</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>33599</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="121" name="组合 120"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1390650" y="11725275"/>
+          <a:ext cx="2192709" cy="262199"/>
+          <a:chOff x="4467225" y="11725275"/>
+          <a:chExt cx="2192709" cy="262199"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="矩形 117"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4467225" y="11772475"/>
+            <a:ext cx="2192709" cy="160481"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:sysClr val="window" lastClr="FFFFFF"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>30/120</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="矩形 118"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4467225" y="11772475"/>
+            <a:ext cx="782895" cy="160481"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="TextBox 77"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5223010" y="11725275"/>
+            <a:ext cx="584466" cy="262199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-Hans" sz="1100"/>
+              <a:t>30/150</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-Hans" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -919,10 +5191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -930,22 +5202,24 @@
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
@@ -959,167 +5233,540 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="C9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="2"/>
+      <c r="B45" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="4">
+        <v>150</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="4">
-        <v>150</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="C53" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="4">
+        <v>12</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="2"/>
+      <c r="C59" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="4">
+        <f>C65*D65+C66*D66+C67*D67</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="4">
+        <v>10</v>
+      </c>
+      <c r="D65" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="4">
+        <v>4</v>
+      </c>
+      <c r="D66" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B67" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4">
-        <v>12</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C26" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
+      <c r="C67" s="4">
+        <v>2</v>
+      </c>
+      <c r="D67" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="4">
-        <f>C31*D31+C32*D32+C33*D33</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4">
-        <v>10</v>
-      </c>
-      <c r="D31" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="4">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>42</v>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B71" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C72" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A74" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C76" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N77" s="11"/>
+    </row>
+    <row r="78" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="79" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="81" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C91" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="92" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D93" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="95" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G95" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D97" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="99" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="101" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D103" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C109" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D110" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D111" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D112" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="113" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E113" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="114" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F114" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="115" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E115" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="116" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F116" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G117" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="118" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F118" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G119" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="122" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="125" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="126" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="127" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L128" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B129" s="15"/>
+    </row>
+    <row r="130" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D133" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E134" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D136" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E137" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E138" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E139" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B141" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C141" s="11"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C142" s="11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:D10"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1130,812 +5777,812 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="12"/>
+    <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="12">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="13">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="13">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="13">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="13">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="13">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="13">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
-        <v>26</v>
-      </c>
-      <c r="B27" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="13">
-        <v>28</v>
-      </c>
-      <c r="B29" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="13">
-        <v>30</v>
-      </c>
-      <c r="B31" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="13">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" s="13">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" s="13">
-        <v>33</v>
-      </c>
-      <c r="B34" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="13">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="13">
-        <v>35</v>
-      </c>
-      <c r="B36" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="13">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="13">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="13">
-        <v>38</v>
-      </c>
-      <c r="B39" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" s="13">
-        <v>39</v>
-      </c>
-      <c r="B40" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" s="13">
-        <v>40</v>
-      </c>
-      <c r="B41" s="11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="13">
-        <v>41</v>
-      </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="13">
+      <c r="A43" s="12">
         <v>42</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="13">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="13">
+      <c r="A45" s="12">
         <v>44</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" s="13">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47" s="13">
+      <c r="A47" s="12">
         <v>46</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="13">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" s="13">
+      <c r="A49" s="12">
         <v>48</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50" s="13">
+      <c r="A50" s="12">
         <v>49</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="13">
+      <c r="A51" s="12">
         <v>50</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="13">
+      <c r="A52" s="12">
         <v>51</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="13">
+      <c r="A53" s="12">
         <v>52</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" s="13">
+      <c r="A54" s="12">
         <v>53</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" s="13">
+      <c r="A55" s="12">
         <v>54</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" s="13">
+      <c r="A56" s="12">
         <v>55</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" s="13">
+      <c r="A57" s="12">
         <v>56</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58" s="13">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B58" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59" s="13">
+      <c r="A59" s="12">
         <v>58</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B59" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60" s="13">
+      <c r="A60" s="12">
         <v>59</v>
       </c>
-      <c r="B60" s="11">
+      <c r="B60" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61" s="13">
+      <c r="A61" s="12">
         <v>60</v>
       </c>
-      <c r="B61" s="11">
+      <c r="B61" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62" s="13">
+      <c r="A62" s="12">
         <v>61</v>
       </c>
-      <c r="B62" s="11">
+      <c r="B62" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63" s="13">
+      <c r="A63" s="12">
         <v>62</v>
       </c>
-      <c r="B63" s="11">
+      <c r="B63" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64" s="13">
+      <c r="A64" s="12">
         <v>63</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65" s="13">
+      <c r="A65" s="12">
         <v>64</v>
       </c>
-      <c r="B65" s="11">
+      <c r="B65" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A66" s="13">
+      <c r="A66" s="12">
         <v>65</v>
       </c>
-      <c r="B66" s="11">
+      <c r="B66" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A67" s="13">
+      <c r="A67" s="12">
         <v>66</v>
       </c>
-      <c r="B67" s="11">
+      <c r="B67" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A68" s="13">
+      <c r="A68" s="12">
         <v>67</v>
       </c>
-      <c r="B68" s="11">
+      <c r="B68" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A69" s="13">
+      <c r="A69" s="12">
         <v>68</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B69" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A70" s="13">
+      <c r="A70" s="12">
         <v>69</v>
       </c>
-      <c r="B70" s="11">
+      <c r="B70" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A71" s="13">
+      <c r="A71" s="12">
         <v>70</v>
       </c>
-      <c r="B71" s="11">
+      <c r="B71" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A72" s="13">
+      <c r="A72" s="12">
         <v>71</v>
       </c>
-      <c r="B72" s="11">
+      <c r="B72" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A73" s="13">
+      <c r="A73" s="12">
         <v>72</v>
       </c>
-      <c r="B73" s="11">
+      <c r="B73" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A74" s="13">
+      <c r="A74" s="12">
         <v>73</v>
       </c>
-      <c r="B74" s="11">
+      <c r="B74" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A75" s="13">
+      <c r="A75" s="12">
         <v>74</v>
       </c>
-      <c r="B75" s="11">
+      <c r="B75" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A76" s="13">
+      <c r="A76" s="12">
         <v>75</v>
       </c>
-      <c r="B76" s="11">
+      <c r="B76" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A77" s="13">
+      <c r="A77" s="12">
         <v>76</v>
       </c>
-      <c r="B77" s="11">
+      <c r="B77" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A78" s="13">
+      <c r="A78" s="12">
         <v>77</v>
       </c>
-      <c r="B78" s="11">
+      <c r="B78" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A79" s="13">
+      <c r="A79" s="12">
         <v>78</v>
       </c>
-      <c r="B79" s="11">
+      <c r="B79" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A80" s="13">
+      <c r="A80" s="12">
         <v>79</v>
       </c>
-      <c r="B80" s="11">
+      <c r="B80" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A81" s="13">
+      <c r="A81" s="12">
         <v>80</v>
       </c>
-      <c r="B81" s="11">
+      <c r="B81" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A82" s="13">
+      <c r="A82" s="12">
         <v>81</v>
       </c>
-      <c r="B82" s="11">
+      <c r="B82" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A83" s="13">
+      <c r="A83" s="12">
         <v>82</v>
       </c>
-      <c r="B83" s="11">
+      <c r="B83" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A84" s="13">
+      <c r="A84" s="12">
         <v>83</v>
       </c>
-      <c r="B84" s="11">
+      <c r="B84" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A85" s="13">
+      <c r="A85" s="12">
         <v>84</v>
       </c>
-      <c r="B85" s="11">
+      <c r="B85" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A86" s="13">
+      <c r="A86" s="12">
         <v>85</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A87" s="13">
+      <c r="A87" s="12">
         <v>86</v>
       </c>
-      <c r="B87" s="11">
+      <c r="B87" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A88" s="13">
+      <c r="A88" s="12">
         <v>87</v>
       </c>
-      <c r="B88" s="11">
+      <c r="B88" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A89" s="13">
+      <c r="A89" s="12">
         <v>88</v>
       </c>
-      <c r="B89" s="11">
+      <c r="B89" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A90" s="13">
+      <c r="A90" s="12">
         <v>89</v>
       </c>
-      <c r="B90" s="11">
+      <c r="B90" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A91" s="13">
+      <c r="A91" s="12">
         <v>90</v>
       </c>
-      <c r="B91" s="11">
+      <c r="B91" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A92" s="13">
+      <c r="A92" s="12">
         <v>91</v>
       </c>
-      <c r="B92" s="11">
+      <c r="B92" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A93" s="13">
+      <c r="A93" s="12">
         <v>92</v>
       </c>
-      <c r="B93" s="11">
+      <c r="B93" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A94" s="13">
+      <c r="A94" s="12">
         <v>93</v>
       </c>
-      <c r="B94" s="11">
+      <c r="B94" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A95" s="13">
+      <c r="A95" s="12">
         <v>94</v>
       </c>
-      <c r="B95" s="11">
+      <c r="B95" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A96" s="13">
+      <c r="A96" s="12">
         <v>95</v>
       </c>
-      <c r="B96" s="11">
+      <c r="B96" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A97" s="13">
+      <c r="A97" s="12">
         <v>96</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A98" s="13">
+      <c r="A98" s="12">
         <v>97</v>
       </c>
-      <c r="B98" s="11">
+      <c r="B98" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A99" s="13">
+      <c r="A99" s="12">
         <v>98</v>
       </c>
-      <c r="B99" s="11">
+      <c r="B99" s="10">
         <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A100" s="13">
+      <c r="A100" s="12">
         <v>99</v>
       </c>
-      <c r="B100" s="11">
+      <c r="B100" s="10">
         <v>150</v>
       </c>
     </row>
@@ -1953,7 +6600,7 @@
   <dimension ref="A3:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2091,52 +6738,55 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="96" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C17" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">

--- a/gd/数值规划/疲劳值系统.xlsx
+++ b/gd/数值规划/疲劳值系统.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="基本内容" sheetId="2" r:id="rId1"/>
-    <sheet name="配置表" sheetId="3" r:id="rId2"/>
-    <sheet name="自用" sheetId="1" r:id="rId3"/>
+    <sheet name="目录" sheetId="4" r:id="rId1"/>
+    <sheet name="基本内容" sheetId="2" r:id="rId2"/>
+    <sheet name="配置表" sheetId="3" r:id="rId3"/>
+    <sheet name="自用" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -271,117 +272,289 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>提示玩家 现有疲劳值已达到上限，请消耗些再来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.特定时间点投放固定疲劳值给玩家（2次共75点左右，领取条件：玩家疲劳值未达到上限）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.特定节日或特殊活动赠送（领取条件：玩家疲劳值未达到上限）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>常态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击/选中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>点击规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击小/中/大疲劳值药可以分别选中该道具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击取消或关闭按钮直接退出疲劳值药使用界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击确定时，分为几种情况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未选中任意疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出二级 请选择使用疲劳药种类后再次确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已选中任意疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中的1/10指一天已用的疲劳值药/一天可用的疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上面的取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中的10指玩家拥有的该种类疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝箱要有钥匙！！！！！！！！！！！！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的疲劳值药今日已不可继续使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出提示 今天已不可使用该种疲劳药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出 疲劳值药使用界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击加号按钮可以以1为做小变化量，将使用最大值调为min（今天仍可使用的数量，玩家拥有数量），继续点击后无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30为玩家当前疲劳值，150为疲劳值上限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家点击取消则返回疲劳值药使用界面，玩家点击确定则使用玩家选择数量的疲劳值药（0就相当于木有用），并返回疲劳值药使用界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档目的</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标读者</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档路径</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档状态</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写中</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(策划)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中（策划）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(QC)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中(QC)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>待3方</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>已定案</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档历史</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>知会同事</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记颜色</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订人</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>星</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关会议</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议日期</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与同事</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本概要</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值系统</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>规定与疲劳值有关的一些规定</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">svn://10.21.2.47/gd/数值规划/疲劳值系统.xlsx
+</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度条显示出当前疲劳值占总疲劳值上限的比例，蓝色部分为当前疲劳值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值推送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当疲劳值恢复满时，向玩家推送 疲劳值已满，大爷快来玩吧！的推送信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的疲劳值药今日仍可继续使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家已有选中的疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家木有选中的疲劳值药</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出使用疲劳值药确认二级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值药确认二级</t>
+  </si>
+  <si>
+    <t>玩家点击减号按钮可以以1为做小变化量，将使用最小值调为0（默认为0），继续点击后无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>不让继续使用疲劳值药/活动不让领疲劳值</t>
-  </si>
-  <si>
-    <t>提示玩家 现有疲劳值已达到上限，请消耗些再来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.特定时间点投放固定疲劳值给玩家（2次共75点左右，领取条件：玩家疲劳值未达到上限）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.特定节日或特殊活动赠送（领取条件：玩家疲劳值未达到上限）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>常态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击/选中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>点击规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击小/中/大疲劳值药可以分别选中该道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击取消或关闭按钮直接退出疲劳值药使用界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击确定时，分为几种情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未选中任意疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出二级 请选择使用疲劳药种类后再次确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选中任意疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出使用疲劳值药确认二级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中的1/10指一天已用的疲劳值药/一天可用的疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上面的取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中的10指玩家拥有的该种类疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝箱要有钥匙！！！！！！！！！！！！！！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中的疲劳值药今日已不可继续使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示 今天已不可使用该种疲劳药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中的疲劳值药今日仍可继续使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出 疲劳值药使用界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击加号按钮可以以1为做小变化量，将使用最大值调为min（今天仍可使用的数量，玩家拥有数量），继续点击后无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击减号按钮可以以1为做小变化量，将使用最小值调为0（默认为0），继续点击后无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30为玩家当前疲劳值，150为疲劳值上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击取消则返回疲劳值药使用界面，玩家点击确定则使用玩家选择数量的疲劳值药（0就相当于木有用），并返回疲劳值药使用界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接至商城购买疲劳值药界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城购买疲劳值药界面</t>
+  </si>
+  <si>
+    <t>具体见商城界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +565,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +643,37 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -485,7 +689,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -517,6 +721,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -533,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,9 +945,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -584,6 +953,81 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -667,7 +1111,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="274114" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -677,7 +1121,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3667125" y="11687175"/>
+          <a:off x="3667125" y="11696700"/>
           <a:ext cx="274114" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -727,13 +1171,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -781,7 +1225,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="274114" cy="311496"/>
@@ -2297,13 +2741,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2349,13 +2793,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2401,13 +2845,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2455,13 +2899,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2509,13 +2953,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2563,7 +3007,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2883931" cy="444481"/>
@@ -2622,13 +3066,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2676,13 +3120,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2730,13 +3174,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2792,13 +3236,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2854,7 +3298,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -2912,7 +3356,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -2970,7 +3414,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
@@ -3028,7 +3472,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
@@ -3086,7 +3530,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
@@ -3144,7 +3588,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="453650" cy="264560"/>
@@ -3197,7 +3641,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="382156" cy="264560"/>
@@ -3250,7 +3694,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="382156" cy="264560"/>
@@ -3303,13 +3747,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3363,13 +3807,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>463175</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>178835</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3379,7 +3823,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2933700" y="19069050"/>
+          <a:off x="2933700" y="19697700"/>
           <a:ext cx="958475" cy="817010"/>
           <a:chOff x="2495550" y="17316450"/>
           <a:chExt cx="958475" cy="817010"/>
@@ -3522,13 +3966,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3582,13 +4026,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>520325</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>64535</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3598,7 +4042,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2990850" y="20212050"/>
+          <a:off x="2990850" y="20840700"/>
           <a:ext cx="958475" cy="817010"/>
           <a:chOff x="2495550" y="17316450"/>
           <a:chExt cx="958475" cy="817010"/>
@@ -3741,13 +4185,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3793,7 +4237,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -3851,13 +4295,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3903,7 +4347,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -3960,15 +4404,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3977,7 +4421,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2181225" y="24422100"/>
+          <a:off x="2295525" y="26584275"/>
           <a:ext cx="4705350" cy="2466975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4013,7 +4457,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2995244" cy="488403"/>
@@ -4024,7 +4468,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133725" y="24650700"/>
+          <a:off x="3133725" y="26746200"/>
           <a:ext cx="2995244" cy="488403"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4076,13 +4520,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4092,7 +4536,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3228975" y="25250775"/>
+          <a:off x="3228975" y="27346275"/>
           <a:ext cx="866775" cy="809625"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4130,7 +4574,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
@@ -4141,7 +4585,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="25460326"/>
+          <a:off x="3219450" y="27555826"/>
           <a:ext cx="923925" cy="333374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4188,13 +4632,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>129800</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>83585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4204,7 +4648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="25812750"/>
+          <a:off x="3790950" y="27908250"/>
           <a:ext cx="453650" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4246,13 +4690,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4262,7 +4706,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="25536525"/>
+          <a:off x="5086350" y="27632025"/>
           <a:ext cx="695325" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4304,13 +4748,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4320,7 +4764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171825" y="26393775"/>
+          <a:off x="3171825" y="28489275"/>
           <a:ext cx="990600" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4358,13 +4802,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4374,7 +4818,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4953000" y="26393775"/>
+          <a:off x="4953000" y="28489275"/>
           <a:ext cx="990600" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -4412,7 +4856,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -4423,7 +4867,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5162550" y="26365200"/>
+          <a:off x="5162550" y="28460700"/>
           <a:ext cx="595035" cy="444481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4470,7 +4914,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -4481,7 +4925,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3381375" y="26365200"/>
+          <a:off x="3381375" y="28460700"/>
           <a:ext cx="595035" cy="444481"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4528,13 +4972,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4582,13 +5026,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4598,7 +5042,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4591050" y="25603200"/>
+          <a:off x="4591050" y="27698700"/>
           <a:ext cx="228600" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -4636,13 +5080,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4652,7 +5096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6010275" y="25622250"/>
+          <a:off x="6010275" y="27717750"/>
           <a:ext cx="228600" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="mathPlus">
@@ -4698,13 +5142,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4714,7 +5158,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="25565100"/>
+          <a:off x="4572000" y="27660600"/>
           <a:ext cx="266700" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="mathMinus">
@@ -4767,7 +5211,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>154359</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>33599</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4777,7 +5221,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="1390650" y="11725275"/>
-          <a:ext cx="2192709" cy="262199"/>
+          <a:ext cx="2192709" cy="228600"/>
           <a:chOff x="4467225" y="11725275"/>
           <a:chExt cx="2192709" cy="262199"/>
         </a:xfrm>
@@ -5191,10 +5635,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+    </row>
+    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16"/>
+      <c r="B11" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16"/>
+      <c r="B13" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="16"/>
+      <c r="B14" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+      <c r="B17" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+    </row>
+    <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16"/>
+      <c r="B18" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+    </row>
+    <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="27">
+        <v>42125</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="18"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+    </row>
+    <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N157"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O151" sqref="O151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5258,21 +6209,21 @@
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
@@ -5393,7 +6344,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -5405,7 +6356,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -5416,7 +6367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
       <c r="B49" s="4">
         <v>150</v>
@@ -5425,21 +6376,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
       <c r="B50" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
       <c r="B53" s="4" t="s">
         <v>30</v>
@@ -5448,7 +6399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
       <c r="B54" s="4" t="s">
         <v>32</v>
@@ -5460,308 +6411,363 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-      <c r="B58" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="C59" s="4" t="s">
+      <c r="B59" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="C61" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="2"/>
-      <c r="B62" s="11" t="s">
+    <row r="65" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2"/>
+      <c r="B65" s="11" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B63" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="4">
-        <f>C65*D65+C66*D66+C67*D67</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C64" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B65" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="4">
-        <v>10</v>
-      </c>
-      <c r="D65" s="4">
-        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B66" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="4">
+        <f>C68*D68+C69*D69+C70*D70</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C67" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B68" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="4">
+        <v>10</v>
+      </c>
+      <c r="D68" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C69" s="4">
         <v>4</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D69" s="4">
         <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="4">
-        <v>2</v>
-      </c>
-      <c r="D67" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A69" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B70" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="4">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A72" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B73" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B71" s="4" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C72" s="4" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C75" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A74" s="2" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B75" s="4" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B78" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C76" s="4" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="C79" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="82" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="83" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="84" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="85" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="86" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="87" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="90" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="93" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="94" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C94" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D96" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="97" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G98" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="100" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D100" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="102" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="103" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="104" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="105" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="106" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D106" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="108" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="112" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C112" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="113" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="114" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D114" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D115" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="116" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E116" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="117" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F117" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="118" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E118" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="119" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F119" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G120" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="121" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F121" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="122" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G122" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H123" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G124" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="125" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H125" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="126" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D126" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="129" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="130" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="131" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="132" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="133" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="134" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="135" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L135" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B136" s="14"/>
+    </row>
+    <row r="137" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="139" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="140" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D140" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E141" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="143" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D143" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E144" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E145" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N77" s="11"/>
-    </row>
-    <row r="78" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C91" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="92" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D93" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="95" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G95" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="96" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="97" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D97" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="99" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="101" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="102" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="103" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D103" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C109" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="110" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D110" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D111" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D112" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="113" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E113" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="114" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F114" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="115" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E115" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="116" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F116" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="117" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G117" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="118" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F118" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="119" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G119" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="120" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="121" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="122" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="125" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="126" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="127" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="5:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="L128" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="15"/>
-    </row>
-    <row r="130" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="131" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="132" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="133" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D133" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E134" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D136" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E137" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E138" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E139" s="11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B141" s="11" t="s">
+    <row r="147" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D148" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E149" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B151" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C151" s="11"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C152" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C141" s="11"/>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C142" s="11" t="s">
-        <v>62</v>
-      </c>
+    </row>
+    <row r="153" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A154" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B155" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A157" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5769,11 +6775,12 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
@@ -6592,7 +7599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -6740,8 +7747,8 @@
     </row>
     <row r="17" spans="2:3" ht="96" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="16" t="s">
-        <v>81</v>
+      <c r="C17" s="15" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">

--- a/gd/数值规划/疲劳值系统.xlsx
+++ b/gd/数值规划/疲劳值系统.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -555,6 +555,14 @@
   </si>
   <si>
     <t>具体见商城界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示规则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下标的意义为玩家拥有的疲劳值药个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2800,7 +2808,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2809,8 +2817,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2076450" y="16954500"/>
-          <a:ext cx="4105275" cy="1200150"/>
+          <a:off x="2076450" y="17583150"/>
+          <a:ext cx="4105275" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3586,12 +3594,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="453650" cy="264560"/>
+    <xdr:ext cx="478016" cy="280205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="86" name="文本框 85"/>
@@ -3599,8 +3607,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="17716500"/>
-          <a:ext cx="453650" cy="264560"/>
+          <a:off x="2562225" y="18583275"/>
+          <a:ext cx="478016" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3628,10 +3636,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
             <a:t>1/10</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3639,21 +3647,21 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="382156" cy="264560"/>
+    <xdr:ext cx="400046" cy="280205"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="文本框 86"/>
+        <xdr:cNvPr id="88" name="文本框 87"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4286250" y="17726025"/>
-          <a:ext cx="382156" cy="264560"/>
+          <a:off x="5343525" y="18602325"/>
+          <a:ext cx="400046" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3681,63 +3689,10 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>0/4</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="382156" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="文本框 87"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5629275" y="17754600"/>
-          <a:ext cx="382156" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
             <a:t>2/2</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3812,9 +3767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>463175</xdr:colOff>
+      <xdr:colOff>441954</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>178835</xdr:rowOff>
+      <xdr:rowOff>197885</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3824,9 +3779,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2933700" y="19697700"/>
-          <a:ext cx="958475" cy="817010"/>
+          <a:ext cx="937254" cy="836060"/>
           <a:chOff x="2495550" y="17316450"/>
-          <a:chExt cx="958475" cy="817010"/>
+          <a:chExt cx="937254" cy="836060"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -3923,8 +3878,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3000375" y="17868900"/>
-            <a:ext cx="453650" cy="264560"/>
+            <a:off x="3105150" y="17887950"/>
+            <a:ext cx="327654" cy="264560"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -3953,7 +3908,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>1/10</a:t>
+              <a:t>10</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
@@ -4022,6 +3977,59 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400046" cy="280205"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="文本框 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="18611850"/>
+          <a:ext cx="400046" cy="280205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>0/4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -4031,9 +4039,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>520325</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>64535</xdr:rowOff>
+      <xdr:rowOff>102635</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4043,9 +4051,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2990850" y="20840700"/>
-          <a:ext cx="958475" cy="817010"/>
+          <a:ext cx="923925" cy="855110"/>
           <a:chOff x="2495550" y="17316450"/>
-          <a:chExt cx="958475" cy="817010"/>
+          <a:chExt cx="923925" cy="855110"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -4142,8 +4150,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="3000375" y="17868900"/>
-            <a:ext cx="453650" cy="264560"/>
+            <a:off x="3086100" y="17907000"/>
+            <a:ext cx="327654" cy="264560"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -4172,7 +4180,7 @@
           <a:p>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-              <a:t>1/10</a:t>
+              <a:t>10</a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
           </a:p>
@@ -4185,13 +4193,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4237,7 +4245,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -4295,13 +4303,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4347,7 +4355,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -4405,13 +4413,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4457,7 +4465,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2995244" cy="488403"/>
@@ -4520,13 +4528,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4574,7 +4582,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
@@ -4632,13 +4640,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>129800</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>83585</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4690,13 +4698,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4748,13 +4756,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4802,13 +4810,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4856,7 +4864,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -4914,7 +4922,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -4972,13 +4980,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5026,13 +5034,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5080,13 +5088,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5142,13 +5150,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5367,6 +5375,180 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672725</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>197885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="文本框 126"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="18383250"/>
+          <a:ext cx="453650" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>644150</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>16910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="文本框 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="18411825"/>
+          <a:ext cx="453650" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653675</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>207410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="文本框 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686425" y="18392775"/>
+          <a:ext cx="453650" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6142,10 +6324,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O151" sqref="O151"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6578,7 +6760,7 @@
     <row r="97" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G98" s="11" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6591,183 +6773,194 @@
     <row r="102" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="103" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="106" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D106" s="11" t="s">
+    <row r="105" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D105" s="11" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="106" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="107" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="109" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D109" s="11" t="s">
+    <row r="108" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D108" s="11" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="109" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="111" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="111" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C111" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
     <row r="112" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="11" t="s">
+      <c r="D112" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="114" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C115" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D113" s="11" t="s">
+    <row r="116" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D116" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="114" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D114" s="11" t="s">
+    <row r="117" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D117" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="115" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D115" s="11" t="s">
+    <row r="118" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D118" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="116" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E116" s="11" t="s">
+    <row r="119" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E119" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F117" s="11" t="s">
+    <row r="120" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F120" s="11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E118" s="11" t="s">
+    <row r="121" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E121" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F119" s="11" t="s">
+    <row r="122" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F122" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G120" s="11" t="s">
+    <row r="123" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G123" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F121" s="11" t="s">
+    <row r="124" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F124" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="122" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G122" s="11" t="s">
+    <row r="125" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G125" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H123" s="11" t="s">
+    <row r="126" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H126" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G124" s="11" t="s">
+    <row r="127" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G127" s="11" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="125" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H125" s="11" t="s">
+    <row r="128" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="H128" s="11" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D126" s="11" t="s">
+    <row r="129" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D129" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="127" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="128" spans="4:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="129" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="130" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="131" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="132" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="133" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="134" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="135" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="L135" s="11" t="s">
+    <row r="135" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="136" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="137" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="138" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L138" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="136" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="14"/>
-    </row>
-    <row r="137" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="139" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="140" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D140" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="141" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E141" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
+    <row r="139" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="141" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="142" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D143" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E144" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="146" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D146" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E147" s="11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="145" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E145" s="11" t="s">
+    <row r="148" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E148" s="11" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E146" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="148" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D148" s="11" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E149" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="151" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D151" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E152" s="11" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B151" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C151" s="11"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C152" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="B154" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C154" s="11"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B155" s="4" t="s">
-        <v>122</v>
+      <c r="C155" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157" s="2"/>
+      <c r="A157" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B158" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A160" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/gd/数值规划/疲劳值系统.xlsx
+++ b/gd/数值规划/疲劳值系统.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
     <sheet name="基本内容" sheetId="2" r:id="rId2"/>
-    <sheet name="配置表" sheetId="3" r:id="rId3"/>
-    <sheet name="自用" sheetId="1" r:id="rId4"/>
+    <sheet name="提示信息" sheetId="5" r:id="rId3"/>
+    <sheet name="配置表" sheetId="3" r:id="rId4"/>
+    <sheet name="自用" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="156">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -272,10 +273,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提示玩家 现有疲劳值已达到上限，请消耗些再来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2.特定时间点投放固定疲劳值给玩家（2次共75点左右，领取条件：玩家疲劳值未达到上限）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -344,14 +341,6 @@
   </si>
   <si>
     <t>宝箱要有钥匙！！！！！！！！！！！！！！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中的疲劳值药今日已不可继续使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出提示 今天已不可使用该种疲劳药</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -516,10 +505,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当疲劳值恢复满时，向玩家推送 疲劳值已满，大爷快来玩吧！的推送信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>选中的疲劳值药今日仍可继续使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -564,6 +549,100 @@
   <si>
     <t>下标的意义为玩家拥有的疲劳值药个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示方式</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>提示范围</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字内容</t>
+  </si>
+  <si>
+    <t>系统频道</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>走马灯</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示（非警示）</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示（警示）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统公告</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_record_001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家自己</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_record_002</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的疲劳值药今日已不可继续使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家选中的疲劳值药今日已不可继续使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">弹出提示 今天已不可使用该疲劳药 具体见提示信息 im_record_001 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天已不可使用该疲劳药</t>
+  </si>
+  <si>
+    <t>玩家疲劳值已满时，同时想要继续使用疲劳药或领取活动疲劳值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有疲劳值已达到上限，请消耗些再来</t>
+  </si>
+  <si>
+    <t>提示玩家 现有疲劳值已达到上限，请消耗些再来 具体见提示信息 im_record_002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_record_003</t>
+  </si>
+  <si>
+    <t>当疲劳值恢复满时，向玩家推送 疲劳值已满，大爷快来玩吧！的推送信息 具体见提示信息 im_record_003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家疲劳值恢复满</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疲劳值已满，大爷快来玩吧！</t>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -573,7 +652,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,8 +761,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,8 +781,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6699FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -897,6 +988,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,6 +1108,31 @@
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5819,7 +5961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -5827,10 +5969,10 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="18"/>
@@ -5865,10 +6007,10 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
@@ -5903,10 +6045,10 @@
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="18"/>
@@ -5941,10 +6083,10 @@
     </row>
     <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="21"/>
@@ -5996,7 +6138,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
@@ -6015,17 +6157,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="16"/>
-      <c r="B11" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
+      <c r="B11" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
@@ -6037,14 +6179,14 @@
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C12" s="23"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
@@ -6056,16 +6198,16 @@
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="16"/>
       <c r="B13" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
@@ -6077,14 +6219,14 @@
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16"/>
       <c r="B14" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -6096,14 +6238,14 @@
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
@@ -6115,14 +6257,14 @@
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="16"/>
       <c r="B16" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
@@ -6134,14 +6276,14 @@
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A17" s="16"/>
       <c r="B17" s="22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C17" s="24"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="17"/>
       <c r="J17" s="17"/>
       <c r="K17" s="17"/>
@@ -6153,14 +6295,14 @@
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C18" s="26"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
@@ -6188,25 +6330,25 @@
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="E20" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="G20" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
@@ -6237,19 +6379,19 @@
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A22" s="16"/>
       <c r="B22" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C22" s="27">
         <v>42125</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G22" s="18"/>
       <c r="H22" s="17"/>
@@ -6280,19 +6422,19 @@
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="E24" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>116</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -6326,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6391,10 +6533,10 @@
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="42"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="13" t="s">
         <v>45</v>
       </c>
@@ -6404,8 +6546,8 @@
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="11" t="s">
         <v>47</v>
       </c>
@@ -6526,7 +6668,7 @@
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
@@ -6538,7 +6680,7 @@
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
       <c r="B46" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
@@ -6613,13 +6755,13 @@
     <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
       <c r="B59" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
@@ -6661,7 +6803,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B68" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C68" s="4">
         <v>10</v>
@@ -6727,7 +6869,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="C79" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
@@ -6748,25 +6890,25 @@
     <row r="93" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="94" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C94" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D96" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G98" s="11" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="100" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D100" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6775,103 +6917,103 @@
     <row r="104" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="105" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D105" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="106" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="107" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="108" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D108" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="109" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="111" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C111" s="11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D112" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C115" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D116" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D117" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D118" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E119" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="120" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F120" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E121" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F122" s="11" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G123" s="11" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F124" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G125" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H126" s="11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="G127" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="H128" s="11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D129" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6884,7 +7026,7 @@
     <row r="137" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="138" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="L138" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="139" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -6895,67 +7037,67 @@
     <row r="142" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="143" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D143" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E144" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="145" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="146" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D146" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E147" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E148" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E149" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="151" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D151" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="152" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="E152" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="153" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B154" s="11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C154" s="11"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C155" s="11" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A157" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B158" s="4" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -6975,9 +7117,388 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="58.5" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="34">
+        <v>1</v>
+      </c>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34">
+        <v>1</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="35">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -7792,7 +8313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -7941,7 +8462,7 @@
     <row r="17" spans="2:3" ht="96" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">

--- a/gd/数值规划/疲劳值系统.xlsx
+++ b/gd/数值规划/疲劳值系统.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\数值规划\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="4905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28245" windowHeight="12270" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="配置表" sheetId="3" r:id="rId4"/>
     <sheet name="自用" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="163">
   <si>
     <t>设一个普通对局要</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,70 +89,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最大疲劳药回复pl值为</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(PL值药水需要定义回复量和使用次数)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疲劳值概念</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值是游戏中针对副本关卡的一个游戏指数，每次游戏角色进入副本关卡都需要扣除一定的疲劳值。当玩家的疲劳值不足，就无法进入副本了。只能PVP，聊天或进入不使用疲劳值（按次数）的活动本！由于咱们游戏每个副本可能由不同个数对局组成，所以以对局为单位来考虑活力消耗更精确。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗疲劳值规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.在副本入口检测玩家疲劳值是否大于进入该副本所需要的疲劳值，大于即可进入副本</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2.进本消耗1点疲劳值，副本成功结算时消耗(全部疲劳值-1)；副本失败时，副本失败结算时消耗（通过对局数/全部对局数*(全部疲劳值-1)）（向上取整）的疲劳值
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义疲劳值恢复6点/小时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值投放方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.固定单位时间恢复固定疲劳值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.玩家rmb购买疲劳药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值上限</t>
-  </si>
-  <si>
-    <t>疲劳值上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>（感受数值待定，指前期pl值规划）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>普通对局</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>对局疲劳值消耗对应关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>困难对局</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,14 +105,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疲劳值:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击则弹出疲劳值药使用界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>（每个等级单独配置，具体见配置表）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,34 +112,10 @@
     <t>角色等级</t>
   </si>
   <si>
-    <t>具体疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值药可回复最大疲劳值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最多使用个数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>回复量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>产出疲劳值公式=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>（玩家重新上线时间-玩家下线时间）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,74 +124,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单位恢复疲劳值时间（10min）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值恢复流程图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>（玩家重新上线时间-玩家下线时间）表示玩家离线时间（单位为min）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>具体回复方式：每10分钟恢复一点，若玩家在线则1点1点的恢复；玩家不在线则判定玩家下线时间与再次上线时间，计算出该段时间产出的疲劳值,若其溢出则加至满疲劳值，若未溢出则将产出的疲劳值直接加在玩家原有疲劳值上</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>（产出期望价值为普通本的2倍）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疲劳值特殊溢出方式与特殊规则</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用条件：玩家疲劳值未达到上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值溢出方式：玩家在拥有一定疲劳值时（未达到上限的疲劳值），使用疲劳值药或通过活动使疲劳值超过疲劳值上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值自动恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.疲劳值溢出时，不允许使用疲劳值药并且不允许通过活动继续提升疲劳值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值不够：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>特殊规则：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.疲劳值溢出时，疲劳值不自动恢复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值不够时的提示，不让继续使用疲劳值药/活动不让领疲劳值的提示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.特定时间点投放固定疲劳值给玩家（2次共75点左右，领取条件：玩家疲劳值未达到上限）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.特定节日或特殊活动赠送（领取条件：玩家疲劳值未达到上限）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>小疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>按钮状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -304,152 +155,104 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家点击小/中/大疲劳值药可以分别选中该道具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击取消或关闭按钮直接退出疲劳值药使用界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击确定时，分为几种情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>未选中任意疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出二级 请选择使用疲劳药种类后再次确认</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已选中任意疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其中的1/10指一天已用的疲劳值药/一天可用的疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>同上面的取消</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>其中的10指玩家拥有的该种类疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>宝箱要有钥匙！！！！！！！！！！！！！！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弹出 疲劳值药使用界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击加号按钮可以以1为做小变化量，将使用最大值调为min（今天仍可使用的数量，玩家拥有数量），继续点击后无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30为玩家当前疲劳值，150为疲劳值上限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家点击取消则返回疲劳值药使用界面，玩家点击确定则使用玩家选择数量的疲劳值药（0就相当于木有用），并返回疲劳值药使用界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>文档名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>辛</t>
@@ -457,86 +260,31 @@
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>星</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值系统</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>规定与疲劳值有关的一些规定</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">svn://10.21.2.47/gd/数值规划/疲劳值系统.xlsx
-</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度条显示出当前疲劳值占总疲劳值上限的比例，蓝色部分为当前疲劳值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值推送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中的疲劳值药今日仍可继续使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家已有选中的疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家木有选中的疲劳值药</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出使用疲劳值药确认二级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>疲劳值药确认二级</t>
-  </si>
-  <si>
-    <t>玩家点击减号按钮可以以1为做小变化量，将使用最小值调为0（默认为0），继续点击后无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不让继续使用疲劳值药/活动不让领疲劳值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接至商城购买疲劳值药界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>商城购买疲劳值药界面</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>具体见商城界面</t>
@@ -547,102 +295,316 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>下标的意义为玩家拥有的疲劳值药个数</t>
+    <t>提示方式</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发条件</t>
+  </si>
+  <si>
+    <t>提示范围</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字内容</t>
+  </si>
+  <si>
+    <t>系统频道</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>走马灯</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示（非警示）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示（警示）</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统公告</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_record_001</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家自己</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_record_002</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>im_record_003</t>
+  </si>
+  <si>
+    <t>推送</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日最多使用个数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提示方式</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发条件</t>
-  </si>
-  <si>
-    <t>提示范围</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>文字内容</t>
-  </si>
-  <si>
-    <t>系统频道</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>走马灯</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统提示（非警示）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统提示（警示）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统公告</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>im_record_001</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家自己</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>im_record_002</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中的疲劳值药今日已不可继续使用</t>
+    <t>商城界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家选中的疲劳值药今日已不可继续使用</t>
+    <t>玩家点击确定使用时，分为几种情况</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">弹出提示 今天已不可使用该疲劳药 具体见提示信息 im_record_001 </t>
+    <t>如果已经消耗完今日的使用次数则切换到中级,如果仍消耗完则默认切换为高级.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>今天已不可使用该疲劳药</t>
-  </si>
-  <si>
-    <t>玩家疲劳值已满时，同时想要继续使用疲劳药或领取活动疲劳值</t>
+    <t>im_record_004</t>
+  </si>
+  <si>
+    <t>参考界面</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>现有疲劳值已达到上限，请消耗些再来</t>
-  </si>
-  <si>
-    <t>提示玩家 现有疲劳值已达到上限，请消耗些再来 具体见提示信息 im_record_002</t>
+    <t>Ver 0.2</t>
+  </si>
+  <si>
+    <t>李</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>im_record_003</t>
-  </si>
-  <si>
-    <t>当疲劳值恢复满时，向玩家推送 疲劳值已满，大爷快来玩吧！的推送信息 具体见提示信息 im_record_003</t>
+    <t>调整使用药水界面规则更加使用便利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>玩家疲劳值恢复满</t>
+    <t>当已用次数满时,"1/10"显示为红色</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>疲劳值已满，大爷快来玩吧！</t>
-  </si>
-  <si>
-    <t>推送</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <t>需要记录玩家精确的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>活力值系统</t>
+  </si>
+  <si>
+    <t>规定与活力值有关的一些规定</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svn://10.21.2.47/gd/数值规划/活力值系统.xlsx
+</t>
+  </si>
+  <si>
+    <t>活力值概念</t>
+  </si>
+  <si>
+    <t>活力值是游戏中针对副本关卡的一个游戏指数，每次游戏角色进入副本关卡都需要扣除一定的活力值。当玩家的活力值不足，就无法进入副本了。只能PVP，聊天或进入不使用活力值（按次数）的活动本！由于咱们游戏每个副本可能由不同个数对局组成，所以以对局为单位来考虑活力消耗更精确。</t>
+  </si>
+  <si>
+    <t>消耗活力值规则</t>
+  </si>
+  <si>
+    <t>1.在副本入口检测玩家活力值是否大于进入该副本所需要的活力值，大于即可进入副本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.只要进本消耗1点活力值，副本成功结算时消耗(全部活力值-1)；副本失败时，副本失败结算时消耗（通过对局数/全部对局数*(全部活力值-1)）（向上取整）的活力值
+</t>
+  </si>
+  <si>
+    <t>活力值自动恢复</t>
+  </si>
+  <si>
+    <t>定义活力值恢复6点/小时</t>
+  </si>
+  <si>
+    <t>具体回复方式：每10分钟恢复一点，若玩家在线则1点1点的恢复；玩家不在线则判定玩家下线时间与再次上线时间，计算出该段时间产出的活力值,若其溢出则加至满活力值，若未溢出则将产出的活力值直接加在玩家原有活力值上</t>
+  </si>
+  <si>
+    <t>产出活力值公式=</t>
+  </si>
+  <si>
+    <t>单位恢复活力值时间（10min）</t>
+  </si>
+  <si>
+    <t>活力值恢复流程图</t>
+  </si>
+  <si>
+    <t>活力值投放方式</t>
+  </si>
+  <si>
+    <t>1.固定单位时间恢复固定活力值</t>
+  </si>
+  <si>
+    <t>3.玩家rmb购买活力药(可通过商店购买或者直接用付费货币购买)</t>
+  </si>
+  <si>
+    <t>4.特定节日或特殊活动赠送（领取条件：玩家活力值未达到上限）</t>
+  </si>
+  <si>
+    <t>活力值上限</t>
+  </si>
+  <si>
+    <t>目前所有玩家等级暂定150点上限,每个玩家等级可通过配置表配置其对应的活力上限</t>
+  </si>
+  <si>
+    <t>对局活力值消耗对应关系</t>
+  </si>
+  <si>
+    <t>活力值:</t>
+  </si>
+  <si>
+    <t>进度条显示出当前活力值占总活力值上限的比例，蓝色部分为当前活力值</t>
+  </si>
+  <si>
+    <t>30为玩家当前活力值，150为活力值上限</t>
+  </si>
+  <si>
+    <t>点击则弹出活力值药使用界面</t>
+  </si>
+  <si>
+    <t>具体活力值药</t>
+  </si>
+  <si>
+    <t>使用条件：玩家活力值未达到上限</t>
+  </si>
+  <si>
+    <t>活力值药可回复最大活力值</t>
+  </si>
+  <si>
+    <t>小活力值药</t>
+  </si>
+  <si>
+    <t>中活力值药</t>
+  </si>
+  <si>
+    <t>大活力值药</t>
+  </si>
+  <si>
+    <t>活力值特殊溢出方式与特殊规则</t>
+  </si>
+  <si>
+    <t>活力值溢出方式：玩家在拥有一定活力值时（未达到上限的活力值），使用活力值药或通过活动使活力值超过活力值上限</t>
+  </si>
+  <si>
+    <t>1.活力值溢出时，活力值不自动恢复</t>
+  </si>
+  <si>
+    <t>2.活力值溢出时，不允许使用活力值药并且不允许通过活动继续提升活力值</t>
+  </si>
+  <si>
+    <t>活力值不够：</t>
+  </si>
+  <si>
+    <t>弹出 活力值药使用界面</t>
+  </si>
+  <si>
+    <t>下标的意义为玩家拥有的活力值药个数</t>
+  </si>
+  <si>
+    <t>其中的1/10指一天已用的活力值药/一天可用的活力值药</t>
+  </si>
+  <si>
+    <t>玩家点击小/中/大活力值药可以分别选中该道具</t>
+  </si>
+  <si>
+    <t>默认使用初等的活力药水,点击使用按钮时,直接使用1个药水,</t>
+  </si>
+  <si>
+    <t>玩家点击取消或关闭按钮直接退出活力值药使用界面</t>
+  </si>
+  <si>
+    <t>已选中默认活力值药但不能使用情况</t>
+  </si>
+  <si>
+    <t>如果都没有可以使用的活力药则弹出提示   今日已不能额外获取活力值 im_record_004.且不再打开活力药水使用界面</t>
+  </si>
+  <si>
+    <t>切换选中的活力值药但今日已不可继续使用</t>
+  </si>
+  <si>
+    <t>弹出提示 今天已不可使用该活力药 具体见提示信息 im_record_001 并不能切换</t>
+  </si>
+  <si>
+    <t>选中的活力值药今日仍可继续使用</t>
+  </si>
+  <si>
+    <t>则直接使用选中数量的活力药,一次使用一个</t>
+  </si>
+  <si>
+    <t>下面出现的购买按钮可以快速在以商城价格购买一瓶该活力药</t>
+  </si>
+  <si>
+    <t>商城购买活力值药界面</t>
+  </si>
+  <si>
+    <t>不让继续使用活力值药/活动不让领活力值</t>
+  </si>
+  <si>
+    <t>提示玩家 现有活力值已达到上限，请消耗些再来 具体见提示信息 im_record_002</t>
+  </si>
+  <si>
+    <t>活力值推送</t>
+  </si>
+  <si>
+    <t>当活力值恢复满时，通过手机桌面向玩家推送 活力值已满，大爷快来玩吧！的推送信息 具体见提示信息 im_record_003</t>
+  </si>
+  <si>
+    <t>玩家选中的活力值药今日已不可继续使用</t>
+  </si>
+  <si>
+    <t>今天已不可使用该活力药</t>
+  </si>
+  <si>
+    <t>玩家活力值已满时，同时想要继续使用活力药或领取活动活力值</t>
+  </si>
+  <si>
+    <t>现有活力值已达到上限，请消耗些再来</t>
+  </si>
+  <si>
+    <t>玩家活力值恢复满</t>
+  </si>
+  <si>
+    <t>活力值已满，大爷快来玩吧！</t>
+  </si>
+  <si>
+    <t>所有活力药水种类都消耗够规定数量</t>
+  </si>
+  <si>
+    <t>今日已不能额外获取活力值</t>
+  </si>
+  <si>
+    <t>最大活力药回复pl值为</t>
+  </si>
+  <si>
+    <t>2.特定时间点投放固定活力值给玩家（3次共150点左右，领取条件：若玩家在活动时间在线,则系统通过邮箱向玩家发送活力值发放邮件.）</t>
+  </si>
+  <si>
+    <t>活力恢复倒计时</t>
+  </si>
+  <si>
+    <t>当活力进入恢复状态时,自动恢复活力倒计时开始显示,每当倒计时结束后增加1点活力,活力值达到上限时,则不再自动恢复,也不会显示倒计时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力补充</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家选中的活力值药种类但已经用光</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家选中的活力值药种类仍有剩余数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -718,12 +680,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="72"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -766,6 +722,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1015,7 +980,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,6 +992,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1076,43 +1044,40 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
@@ -1121,7 +1086,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1134,58 +1099,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 2 10" xfId="4"/>
     <cellStyle name="常规 2 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1202,66 +1171,12 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="椭圆 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3714750" y="11782425"/>
-          <a:ext cx="171450" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="274114" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -1317,66 +1232,12 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="椭圆 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="742950" y="5267325"/>
-          <a:ext cx="171450" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="274114" cy="311496"/>
     <xdr:sp macro="" textlink="">
@@ -1436,13 +1297,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>164735</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1474,14 +1335,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>351949</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1490,10 +1351,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1304925" y="2057400"/>
-          <a:ext cx="6590824" cy="6410325"/>
+          <a:off x="1304925" y="4572000"/>
+          <a:ext cx="6800374" cy="6953249"/>
           <a:chOff x="1295400" y="2019300"/>
-          <a:chExt cx="6590824" cy="6410325"/>
+          <a:chExt cx="6590824" cy="6526551"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1504,9 +1365,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="1295400" y="2019300"/>
-            <a:ext cx="5933599" cy="6410325"/>
+            <a:ext cx="5933599" cy="6526551"/>
             <a:chOff x="1295400" y="2019300"/>
-            <a:chExt cx="5933599" cy="6410325"/>
+            <a:chExt cx="5933599" cy="6526551"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:grpSp>
@@ -1517,9 +1378,9 @@
           <xdr:grpSpPr>
             <a:xfrm>
               <a:off x="1295400" y="2019300"/>
-              <a:ext cx="5933599" cy="6410325"/>
+              <a:ext cx="5933599" cy="6526551"/>
               <a:chOff x="1171575" y="1895831"/>
-              <a:chExt cx="5933599" cy="5562244"/>
+              <a:chExt cx="5933599" cy="5663094"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:grpSp>
@@ -2263,8 +2124,8 @@
             </xdr:nvCxnSpPr>
             <xdr:spPr>
               <a:xfrm rot="10800000" flipV="1">
-                <a:off x="2895601" y="5948362"/>
-                <a:ext cx="142875" cy="547688"/>
+                <a:off x="3022490" y="5948361"/>
+                <a:ext cx="15987" cy="547690"/>
               </a:xfrm>
               <a:prstGeom prst="bentConnector2">
                 <a:avLst/>
@@ -2444,10 +2305,10 @@
             </xdr:nvGrpSpPr>
             <xdr:grpSpPr>
               <a:xfrm>
-                <a:off x="2114550" y="6496050"/>
-                <a:ext cx="1723549" cy="962025"/>
-                <a:chOff x="2390775" y="2438399"/>
-                <a:chExt cx="1723549" cy="561975"/>
+                <a:off x="1965483" y="6496052"/>
+                <a:ext cx="2114011" cy="1062873"/>
+                <a:chOff x="2241708" y="2438399"/>
+                <a:chExt cx="2114011" cy="620886"/>
               </a:xfrm>
             </xdr:grpSpPr>
             <xdr:sp macro="" textlink="">
@@ -2457,8 +2318,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="2419350" y="2438399"/>
-                  <a:ext cx="1504950" cy="561975"/>
+                  <a:off x="2241708" y="2438399"/>
+                  <a:ext cx="2114011" cy="611823"/>
                 </a:xfrm>
                 <a:prstGeom prst="roundRect">
                   <a:avLst/>
@@ -2496,8 +2357,8 @@
               </xdr:nvSpPr>
               <xdr:spPr>
                 <a:xfrm>
-                  <a:off x="2390775" y="2457450"/>
-                  <a:ext cx="1723549" cy="526232"/>
+                  <a:off x="2390774" y="2457450"/>
+                  <a:ext cx="1817242" cy="601835"/>
                 </a:xfrm>
                 <a:prstGeom prst="rect">
                   <a:avLst/>
@@ -2601,7 +2462,7 @@
                       <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <a:t>玩家下线时疲劳值</a:t>
+                    <a:t>玩</a:t>
                   </a:r>
                   <a:r>
                     <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -2613,7 +2474,81 @@
                       <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <a:t>）</a:t>
+                    <a:t>家</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>下线时疲</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>劳</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>值</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>,</a:t>
+                  </a:r>
+                </a:p>
+                <a:p>
+                  <a:r>
+                    <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>下次恢复疲劳值的时间</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <a:t>.</a:t>
                   </a:r>
                   <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
                     <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
@@ -2891,14 +2826,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2907,8 +2842,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1724025" y="16154399"/>
-          <a:ext cx="4705350" cy="2466975"/>
+          <a:off x="1724025" y="16668749"/>
+          <a:ext cx="4914900" cy="4295776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2943,13 +2878,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2995,13 +2930,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3049,13 +2984,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3103,13 +3038,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3153,77 +3088,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2883931" cy="444481"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="文本框 74"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2543175" y="16430625"/>
-          <a:ext cx="2883931" cy="444481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>疲劳值不够吗？可以补充呦！</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3232,8 +3108,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2705100" y="18202275"/>
-          <a:ext cx="990600" cy="381000"/>
+          <a:off x="4972050" y="17830800"/>
+          <a:ext cx="1028700" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3256,65 +3132,14 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="圆角矩形 77"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4486275" y="18202275"/>
-          <a:ext cx="990600" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>使用</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3323,15 +3148,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3340,7 +3165,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6048375" y="16221075"/>
+          <a:off x="6305550" y="16754475"/>
           <a:ext cx="285750" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3385,15 +3210,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3402,7 +3227,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6048375" y="16192500"/>
+          <a:off x="6276975" y="16716375"/>
           <a:ext cx="295275" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="mathMultiply">
@@ -3446,125 +3271,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="595035" cy="444481"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="文本框 80"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4695825" y="18173700"/>
-          <a:ext cx="595035" cy="444481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>确定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="595035" cy="444481"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="文本框 81"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2914650" y="18173700"/>
-          <a:ext cx="595035" cy="444481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>取消</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
@@ -3611,7 +3320,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>小疲劳值药</a:t>
+            <a:t>小活力药</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3622,7 +3331,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
@@ -3669,7 +3378,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>中疲劳值药</a:t>
+            <a:t>中活力药</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3680,7 +3389,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
@@ -3727,7 +3436,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>大疲劳值药</a:t>
+            <a:t>大活力药</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3738,7 +3447,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="478016" cy="280205"/>
@@ -3791,7 +3500,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400046" cy="280205"/>
@@ -3802,7 +3511,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5343525" y="18602325"/>
+          <a:off x="5553075" y="20488275"/>
           <a:ext cx="400046" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3832,7 +3541,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            <a:t>2/2</a:t>
+            <a:t>2/5</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
@@ -3844,13 +3553,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3904,13 +3613,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>441954</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>197885</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3920,7 +3629,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2933700" y="19697700"/>
+          <a:off x="3143250" y="22421850"/>
           <a:ext cx="937254" cy="836060"/>
           <a:chOff x="2495550" y="17316450"/>
           <a:chExt cx="937254" cy="836060"/>
@@ -4008,7 +3717,7 @@
                 <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               </a:rPr>
-              <a:t>小疲劳值药</a:t>
+              <a:t>小活力值药</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4063,13 +3772,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4123,7 +3832,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="400046" cy="280205"/>
@@ -4134,7 +3843,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3962400" y="18611850"/>
+          <a:off x="4171950" y="20497800"/>
           <a:ext cx="400046" cy="280205"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4164,7 +3873,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
-            <a:t>0/4</a:t>
+            <a:t>1/5</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200"/>
         </a:p>
@@ -4176,13 +3885,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>102635</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4192,7 +3901,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2990850" y="20840700"/>
+          <a:off x="3200400" y="23564850"/>
           <a:ext cx="923925" cy="855110"/>
           <a:chOff x="2495550" y="17316450"/>
           <a:chExt cx="923925" cy="855110"/>
@@ -4280,7 +3989,7 @@
                 <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
                 <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               </a:rPr>
-              <a:t>小疲劳值药</a:t>
+              <a:t>小活力值药</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -4335,13 +4044,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4387,7 +4096,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -4445,13 +4154,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4497,7 +4206,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595035" cy="444481"/>
@@ -4553,131 +4262,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="矩形 102"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2295525" y="26584275"/>
-          <a:ext cx="4705350" cy="2466975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2995244" cy="488403"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="文本框 103"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3133725" y="26746200"/>
-          <a:ext cx="2995244" cy="488403"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>这可就是用了啊！看好啦！</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800">
-            <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4686,8 +4280,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3228975" y="27346275"/>
-          <a:ext cx="866775" cy="809625"/>
+          <a:off x="3571875" y="17659350"/>
+          <a:ext cx="866775" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4723,9 +4317,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="923925" cy="333374"/>
     <xdr:sp macro="" textlink="">
@@ -4735,7 +4329,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3219450" y="27555826"/>
+          <a:off x="3505200" y="17907001"/>
           <a:ext cx="923925" cy="333374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4771,7 +4365,7 @@
               <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
               <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
             </a:rPr>
-            <a:t>小疲劳值药</a:t>
+            <a:t>小活力值药</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4781,15 +4375,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>129800</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>83585</xdr:rowOff>
+      <xdr:colOff>291725</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>26435</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4798,7 +4392,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790950" y="27908250"/>
+          <a:off x="4162425" y="18211800"/>
           <a:ext cx="453650" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4838,26 +4432,307 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>672725</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>197885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="文本框 126"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2962275" y="18383250"/>
+          <a:ext cx="453650" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>644150</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>16910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="圆角矩形 107"/>
+        <xdr:cNvPr id="128" name="文本框 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="18411825"/>
+          <a:ext cx="453650" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>653675</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>207410</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="文本框 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5686425" y="18392775"/>
+          <a:ext cx="453650" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5000625" y="18497550"/>
+          <a:ext cx="1533525" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>今日仍可用次数    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>294894</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>132912</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7743825" y="17383125"/>
+          <a:ext cx="3047619" cy="3504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="圆角矩形 112"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="27632025"/>
-          <a:ext cx="695325" cy="371475"/>
+          <a:off x="3686174" y="20373975"/>
+          <a:ext cx="1381126" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4880,15 +4755,27 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>    1</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>购买   </a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>88</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>钻</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>icon</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4896,370 +4783,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="圆角矩形 108"/>
+        <xdr:cNvPr id="123" name="椭圆 122"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171825" y="28489275"/>
-          <a:ext cx="990600" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>140</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="圆角矩形 109"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4953000" y="28489275"/>
-          <a:ext cx="990600" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="595035" cy="444481"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="文本框 110"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5162550" y="28460700"/>
-          <a:ext cx="595035" cy="444481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>确定</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="595035" cy="444481"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="文本框 111"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3381375" y="28460700"/>
-          <a:ext cx="595035" cy="444481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-              <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-              <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
-            </a:rPr>
-            <a:t>取消</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="椭圆 113"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6010275" y="25612725"/>
-          <a:ext cx="228600" cy="228600"/>
+          <a:off x="3924300" y="14716125"/>
+          <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="椭圆 114"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4591050" y="27698700"/>
-          <a:ext cx="228600" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent4">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="加号 115"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6010275" y="27717750"/>
-          <a:ext cx="228600" cy="219075"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathPlus">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5288,40 +4835,93 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="274114" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="14630400"/>
+          <a:ext cx="274114" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="减号 116"/>
+        <xdr:cNvPr id="125" name="椭圆 124"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="27660600"/>
-          <a:ext cx="266700" cy="314325"/>
+          <a:off x="742950" y="15544800"/>
+          <a:ext cx="171450" cy="171450"/>
         </a:xfrm>
-        <a:prstGeom prst="mathMinus">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5350,35 +4950,96 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="274114" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="15468600"/>
+          <a:ext cx="274114" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>154359</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="121" name="组合 120"/>
+        <xdr:cNvPr id="130" name="组合 129"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1390650" y="11725275"/>
-          <a:ext cx="2192709" cy="228600"/>
+          <a:off x="1390650" y="2714625"/>
+          <a:ext cx="2402259" cy="228600"/>
           <a:chOff x="4467225" y="11725275"/>
           <a:chExt cx="2192709" cy="262199"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="矩形 117"/>
+          <xdr:cNvPr id="131" name="矩形 130"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5432,7 +5093,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="119" name="矩形 118"/>
+          <xdr:cNvPr id="132" name="矩形 131"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5475,7 +5136,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="120" name="TextBox 77"/>
+          <xdr:cNvPr id="133" name="TextBox 77"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5521,31 +5182,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>672725</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>197885</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="文本框 126"/>
+        <xdr:cNvPr id="134" name="TextBox 133"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2962275" y="18383250"/>
-          <a:ext cx="453650" cy="264560"/>
+          <a:off x="1371600" y="14868524"/>
+          <a:ext cx="2733675" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -5558,134 +5228,24 @@
           <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>10</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下一点体力的恢复时间</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>644150</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>16910</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="文本框 127"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305300" y="18411825"/>
-          <a:ext cx="453650" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>10</a:t>
+            <a:t>:</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>653675</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>207410</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="文本框 128"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5686425" y="18392775"/>
-          <a:ext cx="453650" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>10</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>  03:59</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -5951,7 +5511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5959,493 +5519,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B36" sqref="B35:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="A1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="A3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="A5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-    </row>
-    <row r="7" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15" ht="99" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="A10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="41" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="43" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="44"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="16"/>
-      <c r="B12" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="23"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="38"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
     </row>
     <row r="13" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>94</v>
+      <c r="A13" s="15"/>
+      <c r="B13" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
       <c r="G13" s="46"/>
       <c r="H13" s="47"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="16"/>
-      <c r="B14" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="23"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="22"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
       <c r="G14" s="49"/>
       <c r="H14" s="50"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
     </row>
     <row r="15" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="24"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="23"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="38"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="16"/>
-      <c r="B16" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C16" s="24"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="23"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="24"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="23"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="38"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="16"/>
-      <c r="B18" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="26"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="25"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
       <c r="F18" s="39"/>
       <c r="G18" s="39"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="A20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="16"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="27">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="26">
         <v>42125</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="26">
+        <v>42304</v>
+      </c>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="A24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:15" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -6466,37 +6053,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N160"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="S86" sqref="S86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="11.75" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="5" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -6511,607 +6100,938 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="11" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="C9" s="51" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D9" s="51"/>
       <c r="E9" s="13" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
+      <c r="K9" s="11" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="10" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="11" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="11" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="12" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
+      <c r="B14" s="11" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
-      <c r="B44" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-      <c r="B45" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="B46" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A49" s="2"/>
-      <c r="B49" s="4">
-        <v>150</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A50" s="2"/>
-      <c r="B50" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A53" s="2"/>
-      <c r="B53" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A54" s="2"/>
-      <c r="B54" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="4">
-        <v>12</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A56" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A57" s="2"/>
       <c r="B57" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A59" s="2"/>
-      <c r="B59" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B59" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A60" s="2"/>
       <c r="B60" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A61" s="2"/>
-      <c r="C61" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A62" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="4">
+        <v>150</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+    </row>
+    <row r="64" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A65" s="2"/>
-      <c r="B65" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B66" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E66" s="4">
-        <f>C68*D68+C69*D69+C70*D70</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C67" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A67" s="2"/>
+      <c r="B67" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
       <c r="B68" s="4" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="C68" s="4">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A71" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A72" s="2"/>
+      <c r="B72" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" s="4">
+        <f>C74*D74+C75*D75+C76*D76</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C73" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C74" s="4">
         <v>10</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D74" s="4">
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B69" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="4">
-        <v>4</v>
-      </c>
-      <c r="D69" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B70" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="4">
-        <v>2</v>
-      </c>
-      <c r="D70" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A72" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B73" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B74" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C75" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A77" s="2" t="s">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B75" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="4">
+        <v>5</v>
+      </c>
+      <c r="D75" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B76" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="4">
+        <v>5</v>
+      </c>
+      <c r="D76" s="4">
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B78" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="C79" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="N80" s="11"/>
-    </row>
-    <row r="81" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="82" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="83" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="84" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="85" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="86" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="87" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="88" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="89" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="90" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="91" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="93" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="94" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="96" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D96" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="C81" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+    </row>
+    <row r="86" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="88" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="89" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="L89" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="11"/>
+    </row>
+    <row r="93" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+    </row>
+    <row r="94" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="96" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G98" s="11" t="s">
-        <v>130</v>
-      </c>
-    </row>
+    <row r="98" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="99" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="100" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D100" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
+    <row r="100" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="101" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="103" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="105" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D105" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
+    <row r="105" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="106" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="107" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="108" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D108" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="107" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C107" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="109" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D109" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="110" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="111" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D112" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="113" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="114" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="115" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C115" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D116" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="117" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D117" s="11" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G111" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="113" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D113" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="115" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="116" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="117" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="118" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D118" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="119" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E119" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="120" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F120" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="121" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E121" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F122" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="120" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="121" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D121" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="124" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C124" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D125" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D126" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="128" spans="3:4" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C128" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D129" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D130" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D131" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D132" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E133" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F134" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F135" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="136" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E136" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F137" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E138" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F139" s="11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G140" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F141" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="142" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G142" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="144" spans="4:7" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="145" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D145" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E146" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="148" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="D148" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="E149" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H149" s="36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="123" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G123" s="11" t="s">
+      <c r="C151" s="11"/>
+    </row>
+    <row r="152" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="4"/>
+      <c r="B152" s="4"/>
+      <c r="C152" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="4"/>
+      <c r="J152" s="4"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="4"/>
+      <c r="N152" s="4"/>
+      <c r="O152" s="4"/>
+      <c r="P152" s="4"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+      <c r="E153" s="11"/>
+      <c r="F153" s="11"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11"/>
+      <c r="L153" s="11"/>
+      <c r="M153" s="11"/>
+      <c r="N153" s="11"/>
+      <c r="O153" s="11"/>
+      <c r="P153" s="11"/>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A154" s="11"/>
+    </row>
+    <row r="155" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="124" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F124" s="11" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="125" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G125" s="11" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="126" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H126" s="11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="127" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="G127" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="128" spans="3:8" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="H128" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D129" s="11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="131" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="132" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="133" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="134" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="135" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="136" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="137" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="138" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="L138" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="139" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="14"/>
-    </row>
-    <row r="140" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="141" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="142" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="143" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D143" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="144" spans="2:12" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E144" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="146" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D146" s="11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E147" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E148" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E149" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="151" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="D151" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="E152" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B154" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C154" s="11"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C155" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B158" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A160" s="2"/>
+      <c r="B155" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
+      <c r="I155" s="4"/>
+      <c r="J155" s="4"/>
+      <c r="K155" s="4"/>
+      <c r="L155" s="4"/>
+      <c r="M155" s="4"/>
+      <c r="N155" s="4"/>
+      <c r="O155" s="4"/>
+      <c r="P155" s="4"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A157" s="11"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A158" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C9:D10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H149" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7120,7 +7040,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7133,360 +7053,374 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="28"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="I2" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="32" t="s">
+      <c r="A2" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="33">
+        <v>1</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33">
+        <v>1</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="33">
+        <v>1</v>
+      </c>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="32" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="34">
+      <c r="E6" s="33">
         <v>1</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33">
         <v>1</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="35">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35">
-        <v>1</v>
-      </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
     </row>
     <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7498,8 +7432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7509,10 +7443,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -8420,13 +8354,13 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="1">
+        <v>150</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="L8" s="1">
-        <v>150</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -8461,8 +8395,8 @@
     </row>
     <row r="17" spans="2:3" ht="96" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
-      <c r="C17" s="15" t="s">
-        <v>78</v>
+      <c r="C17" s="14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
